--- a/tests/vlaanderen/reference/resultaten/werk/concurrentie/inwoners/restdag/Ontpl_conc_middelhoog.xlsx
+++ b/tests/vlaanderen/reference/resultaten/werk/concurrentie/inwoners/restdag/Ontpl_conc_middelhoog.xlsx
@@ -400,25 +400,25 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>1.558560782759679</v>
+        <v>1.552136229771481</v>
       </c>
       <c r="C2">
-        <v>1.495044649837059</v>
+        <v>1.493186813606976</v>
       </c>
       <c r="D2">
-        <v>4.63602346283236</v>
+        <v>4.559132871428442</v>
       </c>
       <c r="E2">
-        <v>1.461952654701314</v>
+        <v>1.456920224378268</v>
       </c>
       <c r="F2">
-        <v>1.556329844241898</v>
+        <v>1.550484622924876</v>
       </c>
       <c r="G2">
-        <v>1.572707321208711</v>
+        <v>1.570172298926858</v>
       </c>
       <c r="H2">
-        <v>1.462336970258782</v>
+        <v>1.457347192194637</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -426,25 +426,25 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>1.570930301688488</v>
+        <v>1.563193023149681</v>
       </c>
       <c r="C3">
-        <v>1.503526540733673</v>
+        <v>1.500165029430642</v>
       </c>
       <c r="D3">
-        <v>3.71400127888879</v>
+        <v>3.651525841603914</v>
       </c>
       <c r="E3">
-        <v>1.464892701919798</v>
+        <v>1.458610037681003</v>
       </c>
       <c r="F3">
-        <v>1.563925944613592</v>
+        <v>1.55689358682896</v>
       </c>
       <c r="G3">
-        <v>1.563112006889338</v>
+        <v>1.558931202156377</v>
       </c>
       <c r="H3">
-        <v>1.464831892796351</v>
+        <v>1.458595287136383</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -452,25 +452,25 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>1.533196979898264</v>
+        <v>1.526684029639687</v>
       </c>
       <c r="C4">
-        <v>1.552147142994084</v>
+        <v>1.549274810175597</v>
       </c>
       <c r="D4">
-        <v>4.290365160635488</v>
+        <v>4.19838724095648</v>
       </c>
       <c r="E4">
-        <v>1.456639341935974</v>
+        <v>1.451047547992394</v>
       </c>
       <c r="F4">
-        <v>1.533507641919833</v>
+        <v>1.527468092681718</v>
       </c>
       <c r="G4">
-        <v>1.576039886048958</v>
+        <v>1.57236504845805</v>
       </c>
       <c r="H4">
-        <v>1.456966378879117</v>
+        <v>1.451431135937862</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -478,25 +478,25 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>1.551925953943164</v>
+        <v>1.545217619614819</v>
       </c>
       <c r="C5">
-        <v>1.603692967025184</v>
+        <v>1.601553576152952</v>
       </c>
       <c r="D5">
-        <v>2.490499828806847</v>
+        <v>2.42626073629948</v>
       </c>
       <c r="E5">
-        <v>1.451690941020282</v>
+        <v>1.446216490933229</v>
       </c>
       <c r="F5">
-        <v>1.543787673271103</v>
+        <v>1.537805340834631</v>
       </c>
       <c r="G5">
-        <v>1.581894612469684</v>
+        <v>1.57880164550358</v>
       </c>
       <c r="H5">
-        <v>1.451606695417725</v>
+        <v>1.446166112413758</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -504,25 +504,25 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>1.559028330133393</v>
+        <v>1.551005964670673</v>
       </c>
       <c r="C6">
-        <v>1.604766287808082</v>
+        <v>1.602459148828121</v>
       </c>
       <c r="D6">
-        <v>0.6380346067571496</v>
+        <v>0.6342104514815061</v>
       </c>
       <c r="E6">
-        <v>1.45540592954545</v>
+        <v>1.448875947771873</v>
       </c>
       <c r="F6">
-        <v>1.550575926917416</v>
+        <v>1.543419494542331</v>
       </c>
       <c r="G6">
-        <v>1.551658301694525</v>
+        <v>1.548287313870727</v>
       </c>
       <c r="H6">
-        <v>1.455061622442154</v>
+        <v>1.448580771627436</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -530,25 +530,25 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>1.556412057934797</v>
+        <v>1.549486314736102</v>
       </c>
       <c r="C7">
-        <v>1.644232598380213</v>
+        <v>1.641837099424327</v>
       </c>
       <c r="D7">
-        <v>1.007419350669648</v>
+        <v>1.000518488509308</v>
       </c>
       <c r="E7">
-        <v>1.466810775518669</v>
+        <v>1.461064592524589</v>
       </c>
       <c r="F7">
-        <v>1.548739127703406</v>
+        <v>1.54268538216686</v>
       </c>
       <c r="G7">
-        <v>1.590348423023606</v>
+        <v>1.587202116579776</v>
       </c>
       <c r="H7">
-        <v>1.466514409088087</v>
+        <v>1.460838994595111</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -556,25 +556,25 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>1.581826698341254</v>
+        <v>1.573590969358645</v>
       </c>
       <c r="C8">
-        <v>1.263554553812462</v>
+        <v>1.25963316010294</v>
       </c>
       <c r="D8">
-        <v>1.405690355842309</v>
+        <v>1.398601356383271</v>
       </c>
       <c r="E8">
-        <v>1.470041806802793</v>
+        <v>1.463279494679763</v>
       </c>
       <c r="F8">
-        <v>1.572590205418946</v>
+        <v>1.565222802774</v>
       </c>
       <c r="G8">
-        <v>1.352916142483358</v>
+        <v>1.347264377506427</v>
       </c>
       <c r="H8">
-        <v>1.470025977073177</v>
+        <v>1.463289021859106</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -582,25 +582,25 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>1.570702274522521</v>
+        <v>1.563634562990191</v>
       </c>
       <c r="C9">
-        <v>1.551566105915701</v>
+        <v>1.549120835106842</v>
       </c>
       <c r="D9">
-        <v>1.035276013036793</v>
+        <v>1.032885358940224</v>
       </c>
       <c r="E9">
-        <v>1.460725692950726</v>
+        <v>1.455019439359377</v>
       </c>
       <c r="F9">
-        <v>1.564071944525381</v>
+        <v>1.557877905496985</v>
       </c>
       <c r="G9">
-        <v>1.527405598438478</v>
+        <v>1.524252566768621</v>
       </c>
       <c r="H9">
-        <v>1.461142711977544</v>
+        <v>1.455487230471159</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -608,25 +608,25 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>1.352491451647372</v>
+        <v>1.344117272470109</v>
       </c>
       <c r="C10">
-        <v>1.643749464406628</v>
+        <v>1.639123914208648</v>
       </c>
       <c r="D10">
-        <v>3.021416956703513</v>
+        <v>2.919303411800664</v>
       </c>
       <c r="E10">
-        <v>1.452455680399205</v>
+        <v>1.44357601379494</v>
       </c>
       <c r="F10">
-        <v>1.384366150461767</v>
+        <v>1.375272804597484</v>
       </c>
       <c r="G10">
-        <v>1.609321355018986</v>
+        <v>1.602662455506086</v>
       </c>
       <c r="H10">
-        <v>1.453766020191805</v>
+        <v>1.444906915254569</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -634,25 +634,25 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>1.302977974131756</v>
+        <v>1.298091163975458</v>
       </c>
       <c r="C11">
-        <v>1.648484271474508</v>
+        <v>1.646314611292481</v>
       </c>
       <c r="D11">
-        <v>2.532253444219427</v>
+        <v>2.465559063346524</v>
       </c>
       <c r="E11">
-        <v>1.452465767565398</v>
+        <v>1.446995113239449</v>
       </c>
       <c r="F11">
-        <v>1.334410205388587</v>
+        <v>1.329380741006684</v>
       </c>
       <c r="G11">
-        <v>1.602990320174529</v>
+        <v>1.599602480699534</v>
       </c>
       <c r="H11">
-        <v>1.452858698496749</v>
+        <v>1.447518338027816</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -660,25 +660,25 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>1.078773983574287</v>
+        <v>1.073177682413108</v>
       </c>
       <c r="C12">
-        <v>1.635168488734647</v>
+        <v>1.6308334743146</v>
       </c>
       <c r="D12">
-        <v>0.975679474149533</v>
+        <v>0.9315824148048609</v>
       </c>
       <c r="E12">
-        <v>1.432832171942477</v>
+        <v>1.42465114317971</v>
       </c>
       <c r="F12">
-        <v>1.088919335240199</v>
+        <v>1.082554188446728</v>
       </c>
       <c r="G12">
-        <v>1.568902071079327</v>
+        <v>1.56334331424269</v>
       </c>
       <c r="H12">
-        <v>1.432434374547977</v>
+        <v>1.424266206036189</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -686,25 +686,25 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>1.337171172512715</v>
+        <v>1.329072515563819</v>
       </c>
       <c r="C13">
-        <v>1.641437892327913</v>
+        <v>1.636853583344017</v>
       </c>
       <c r="D13">
-        <v>2.392736508874144</v>
+        <v>2.301587582174857</v>
       </c>
       <c r="E13">
-        <v>1.449008024485522</v>
+        <v>1.440235713151947</v>
       </c>
       <c r="F13">
-        <v>1.359602874049817</v>
+        <v>1.350229857885922</v>
       </c>
       <c r="G13">
-        <v>1.593624928359958</v>
+        <v>1.587080947628144</v>
       </c>
       <c r="H13">
-        <v>1.449660046854814</v>
+        <v>1.440926698548765</v>
       </c>
     </row>
   </sheetData>

--- a/tests/vlaanderen/reference/resultaten/werk/concurrentie/inwoners/restdag/Ontpl_conc_middelhoog.xlsx
+++ b/tests/vlaanderen/reference/resultaten/werk/concurrentie/inwoners/restdag/Ontpl_conc_middelhoog.xlsx
@@ -403,22 +403,22 @@
         <v>1.552136229771481</v>
       </c>
       <c r="C2">
-        <v>1.493186813606976</v>
+        <v>1.493186813606975</v>
       </c>
       <c r="D2">
-        <v>4.559132871428442</v>
+        <v>4.559132871428441</v>
       </c>
       <c r="E2">
-        <v>1.456920224378268</v>
+        <v>1.456920224378267</v>
       </c>
       <c r="F2">
-        <v>1.550484622924876</v>
+        <v>1.550484622924875</v>
       </c>
       <c r="G2">
-        <v>1.570172298926858</v>
+        <v>1.570172298926857</v>
       </c>
       <c r="H2">
-        <v>1.457347192194637</v>
+        <v>1.457347192194636</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -429,16 +429,16 @@
         <v>1.563193023149681</v>
       </c>
       <c r="C3">
-        <v>1.500165029430642</v>
+        <v>1.500165029430641</v>
       </c>
       <c r="D3">
-        <v>3.651525841603914</v>
+        <v>3.651525841603912</v>
       </c>
       <c r="E3">
         <v>1.458610037681003</v>
       </c>
       <c r="F3">
-        <v>1.55689358682896</v>
+        <v>1.556893586828959</v>
       </c>
       <c r="G3">
         <v>1.558931202156377</v>
@@ -452,7 +452,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>1.526684029639687</v>
+        <v>1.526684029639688</v>
       </c>
       <c r="C4">
         <v>1.549274810175597</v>
@@ -464,13 +464,13 @@
         <v>1.451047547992394</v>
       </c>
       <c r="F4">
-        <v>1.527468092681718</v>
+        <v>1.527468092681717</v>
       </c>
       <c r="G4">
-        <v>1.57236504845805</v>
+        <v>1.572365048458049</v>
       </c>
       <c r="H4">
-        <v>1.451431135937862</v>
+        <v>1.451431135937861</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -478,25 +478,25 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>1.545217619614819</v>
+        <v>1.545217619614818</v>
       </c>
       <c r="C5">
         <v>1.601553576152952</v>
       </c>
       <c r="D5">
-        <v>2.42626073629948</v>
+        <v>2.426260736299478</v>
       </c>
       <c r="E5">
-        <v>1.446216490933229</v>
+        <v>1.446216490933228</v>
       </c>
       <c r="F5">
-        <v>1.537805340834631</v>
+        <v>1.537805340834629</v>
       </c>
       <c r="G5">
         <v>1.57880164550358</v>
       </c>
       <c r="H5">
-        <v>1.446166112413758</v>
+        <v>1.446166112413757</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -504,25 +504,25 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>1.551005964670673</v>
+        <v>1.551005964670671</v>
       </c>
       <c r="C6">
-        <v>1.602459148828121</v>
+        <v>1.60245914882812</v>
       </c>
       <c r="D6">
-        <v>0.6342104514815061</v>
+        <v>0.6342104514815053</v>
       </c>
       <c r="E6">
-        <v>1.448875947771873</v>
+        <v>1.448875947771871</v>
       </c>
       <c r="F6">
-        <v>1.543419494542331</v>
+        <v>1.543419494542329</v>
       </c>
       <c r="G6">
-        <v>1.548287313870727</v>
+        <v>1.548287313870725</v>
       </c>
       <c r="H6">
-        <v>1.448580771627436</v>
+        <v>1.448580771627434</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -530,7 +530,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>1.549486314736102</v>
+        <v>1.549486314736101</v>
       </c>
       <c r="C7">
         <v>1.641837099424327</v>
@@ -542,13 +542,13 @@
         <v>1.461064592524589</v>
       </c>
       <c r="F7">
-        <v>1.54268538216686</v>
+        <v>1.542685382166858</v>
       </c>
       <c r="G7">
         <v>1.587202116579776</v>
       </c>
       <c r="H7">
-        <v>1.460838994595111</v>
+        <v>1.46083899459511</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -562,16 +562,16 @@
         <v>1.25963316010294</v>
       </c>
       <c r="D8">
-        <v>1.398601356383271</v>
+        <v>1.398601356383272</v>
       </c>
       <c r="E8">
         <v>1.463279494679763</v>
       </c>
       <c r="F8">
-        <v>1.565222802774</v>
+        <v>1.565222802773999</v>
       </c>
       <c r="G8">
-        <v>1.347264377506427</v>
+        <v>1.347264377506428</v>
       </c>
       <c r="H8">
         <v>1.463289021859106</v>
@@ -582,25 +582,25 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>1.563634562990191</v>
+        <v>1.563634562990192</v>
       </c>
       <c r="C9">
-        <v>1.549120835106842</v>
+        <v>1.549120835106843</v>
       </c>
       <c r="D9">
-        <v>1.032885358940224</v>
+        <v>1.032885358940226</v>
       </c>
       <c r="E9">
-        <v>1.455019439359377</v>
+        <v>1.455019439359379</v>
       </c>
       <c r="F9">
-        <v>1.557877905496985</v>
+        <v>1.557877905496986</v>
       </c>
       <c r="G9">
-        <v>1.524252566768621</v>
+        <v>1.524252566768622</v>
       </c>
       <c r="H9">
-        <v>1.455487230471159</v>
+        <v>1.455487230471161</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -608,10 +608,10 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>1.344117272470109</v>
+        <v>1.34411727247011</v>
       </c>
       <c r="C10">
-        <v>1.639123914208648</v>
+        <v>1.639123914208649</v>
       </c>
       <c r="D10">
         <v>2.919303411800664</v>
@@ -634,16 +634,16 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>1.298091163975458</v>
+        <v>1.298091163975459</v>
       </c>
       <c r="C11">
         <v>1.646314611292481</v>
       </c>
       <c r="D11">
-        <v>2.465559063346524</v>
+        <v>2.465559063346526</v>
       </c>
       <c r="E11">
-        <v>1.446995113239449</v>
+        <v>1.44699511323945</v>
       </c>
       <c r="F11">
         <v>1.329380741006684</v>
@@ -666,7 +666,7 @@
         <v>1.6308334743146</v>
       </c>
       <c r="D12">
-        <v>0.9315824148048609</v>
+        <v>0.9315824148048627</v>
       </c>
       <c r="E12">
         <v>1.42465114317971</v>
@@ -692,16 +692,16 @@
         <v>1.636853583344017</v>
       </c>
       <c r="D13">
-        <v>2.301587582174857</v>
+        <v>2.301587582174859</v>
       </c>
       <c r="E13">
         <v>1.440235713151947</v>
       </c>
       <c r="F13">
-        <v>1.350229857885922</v>
+        <v>1.350229857885921</v>
       </c>
       <c r="G13">
-        <v>1.587080947628144</v>
+        <v>1.587080947628143</v>
       </c>
       <c r="H13">
         <v>1.440926698548765</v>
